--- a/tests/Resources/Strings.xlsx
+++ b/tests/Resources/Strings.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugh\Documents\GitHub\excel-mapper\tests\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugh/Documents/GitHub/excel-mapper/tests/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294A5F85-289F-EA4A-BCA2-5A8B9CD52618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="12560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primitives" sheetId="1" r:id="rId1"/>
+    <sheet name="SecondSheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Value</t>
   </si>
@@ -33,12 +35,21 @@
   </si>
   <si>
     <t xml:space="preserve">  value  </t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,47 +362,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75D390-A53D-B041-AD20-1F87181193C8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
